--- a/docs/Check.xlsx
+++ b/docs/Check.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\mobileTestig\diplom\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\mobileTestig\diplom\fmh-android\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F480B8DF-8758-4ABF-9668-731F66AE220C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6EED42-BD1C-43CC-BCC5-EED38856AF1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="186">
   <si>
     <t xml:space="preserve">Группа проверок </t>
   </si>
@@ -321,9 +321,6 @@
     <t>Сотовая связь (хорошее соединение, прерывистое соеднинение, нет соединения, 2G, 3G, 4G, 5G)</t>
   </si>
   <si>
-    <t>на эмуляторе всегда выдает ошибку "Сохранение не удалось. Попробуйте позднее" (может что не так делаю??)</t>
-  </si>
-  <si>
     <t>Конфигурационное тестирование</t>
   </si>
   <si>
@@ -339,15 +336,9 @@
     <t>политика конфиденциальности не открылось, появилась ошибка "Не удается получить доступ к сайту"</t>
   </si>
   <si>
-    <t>Без этой опции была ситуация на устройстве huawei p10, что приложение принудительно закрылось, после входа действия не сохранены</t>
-  </si>
-  <si>
     <t>что-то проверено на эмуляторе, что-то проверено на устройстве huawei p10</t>
   </si>
   <si>
-    <t>на эмуляторе в альбомную ориентацию приложение не перерисовывается</t>
-  </si>
-  <si>
     <t>Расположение элементов согласно макеты</t>
   </si>
   <si>
@@ -534,9 +525,6 @@
     <t>нет ограничения длины комментария</t>
   </si>
   <si>
-    <t>Как изменить одного исполнителя на другого, если в выпадающем списке только один исполнитель?</t>
-  </si>
-  <si>
     <t>Переход на экран "новости"</t>
   </si>
   <si>
@@ -601,6 +589,9 @@
   </si>
   <si>
     <t>Не ограниченно число попыток входа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">на эмуляторе всегда выдает ошибку "Сохранение не удалось. Попробуйте позднее" </t>
   </si>
 </sst>
 </file>
@@ -768,6 +759,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -776,18 +770,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -803,6 +785,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1086,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1119,15 +1110,15 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1141,7 +1132,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="15"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="3" t="s">
         <v>29</v>
       </c>
@@ -1153,7 +1144,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A5" s="15"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="3" t="s">
         <v>64</v>
       </c>
@@ -1168,7 +1159,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="15"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="3" t="s">
         <v>65</v>
       </c>
@@ -1180,9 +1171,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="15"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>78</v>
@@ -1192,9 +1183,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="15"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>78</v>
@@ -1203,11 +1194,11 @@
         <v>76</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="15"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="3" t="s">
         <v>34</v>
       </c>
@@ -1219,11 +1210,11 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>78</v>
@@ -1234,9 +1225,9 @@
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A11" s="15"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>80</v>
@@ -1247,24 +1238,24 @@
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A12" s="15"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="11" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>78</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A13" s="15"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>78</v>
@@ -1273,28 +1264,28 @@
         <v>76</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="15"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>125</v>
-      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="15"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>79</v>
@@ -1305,9 +1296,9 @@
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="15"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>80</v>
@@ -1318,9 +1309,9 @@
       <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A17" s="15"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>79</v>
@@ -1329,41 +1320,41 @@
         <v>70</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="15"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A19" s="16"/>
+      <c r="B19" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A19" s="15"/>
-      <c r="B19" s="11" t="s">
+      <c r="C19" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A20" s="16"/>
+      <c r="B20" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A20" s="15"/>
-      <c r="B20" s="11" t="s">
-        <v>135</v>
-      </c>
       <c r="C20" s="11" t="s">
         <v>78</v>
       </c>
@@ -1371,13 +1362,13 @@
         <v>81</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="15"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>80</v>
@@ -1387,9 +1378,9 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A22" s="15"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>78</v>
@@ -1399,9 +1390,9 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" s="15"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>78</v>
@@ -1411,9 +1402,9 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="15"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="11" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>78</v>
@@ -1423,9 +1414,9 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" s="15"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>78</v>
@@ -1435,9 +1426,9 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A26" s="15"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>78</v>
@@ -1447,7 +1438,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A27" s="15"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="3" t="s">
         <v>72</v>
       </c>
@@ -1462,9 +1453,9 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A28" s="15"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>79</v>
@@ -1474,57 +1465,57 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A30" s="16"/>
+      <c r="B30" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A31" s="16"/>
+      <c r="B31" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A32" s="16"/>
+      <c r="B32" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A30" s="15"/>
-      <c r="B30" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A31" s="15"/>
-      <c r="B31" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A32" s="15"/>
-      <c r="B32" s="11" t="s">
-        <v>180</v>
-      </c>
       <c r="C32" s="11" t="s">
         <v>78</v>
       </c>
@@ -1532,13 +1523,13 @@
         <v>81</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A33" s="15"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>79</v>
@@ -1548,9 +1539,9 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A34" s="15"/>
+      <c r="A34" s="16"/>
       <c r="B34" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>78</v>
@@ -1560,9 +1551,9 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A35" s="15"/>
+      <c r="A35" s="16"/>
       <c r="B35" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>78</v>
@@ -1572,9 +1563,9 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A36" s="15"/>
+      <c r="A36" s="16"/>
       <c r="B36" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>79</v>
@@ -1584,9 +1575,9 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A37" s="15"/>
+      <c r="A37" s="16"/>
       <c r="B37" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>79</v>
@@ -1595,40 +1586,40 @@
         <v>70</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A38" s="15"/>
+      <c r="A38" s="16"/>
       <c r="B38" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A39" s="16"/>
+      <c r="B39" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A39" s="15"/>
-      <c r="B39" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>152</v>
-      </c>
     </row>
     <row r="40" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A40" s="15"/>
+      <c r="A40" s="16"/>
       <c r="B40" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>78</v>
@@ -1637,100 +1628,97 @@
         <v>81</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A41" s="15"/>
+      <c r="A41" s="16"/>
       <c r="B41" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>79</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A42" s="15"/>
+      <c r="A42" s="16"/>
       <c r="B42" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A43" s="16"/>
+      <c r="B43" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="16"/>
+      <c r="B44" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="16"/>
+      <c r="B45" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="C42" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A43" s="15"/>
-      <c r="B43" s="11" t="s">
+      <c r="C45" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="16"/>
+      <c r="B46" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C43" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A44" s="15"/>
-      <c r="B44" s="11" t="s">
+      <c r="C46" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" s="16"/>
+      <c r="B47" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C44" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A45" s="15"/>
-      <c r="B45" s="11" t="s">
+      <c r="C47" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48" s="16"/>
+      <c r="B48" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A46" s="15"/>
-      <c r="B46" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A47" s="15"/>
-      <c r="B47" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A48" s="15"/>
-      <c r="B48" s="3" t="s">
-        <v>160</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>78</v>
@@ -1739,13 +1727,13 @@
         <v>74</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A49" s="15"/>
+      <c r="A49" s="16"/>
       <c r="B49" s="11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>80</v>
@@ -1755,9 +1743,9 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A50" s="15"/>
+      <c r="A50" s="16"/>
       <c r="B50" s="11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>79</v>
@@ -1767,9 +1755,9 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A51" s="15"/>
+      <c r="A51" s="16"/>
       <c r="B51" s="11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>79</v>
@@ -1779,7 +1767,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A52" s="15"/>
+      <c r="A52" s="16"/>
       <c r="B52" s="3" t="s">
         <v>31</v>
       </c>
@@ -1790,11 +1778,11 @@
         <v>74</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A53" s="22" t="s">
+      <c r="A53" s="19" t="s">
         <v>68</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -1808,9 +1796,9 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A54" s="23"/>
+      <c r="A54" s="20"/>
       <c r="B54" s="11" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>79</v>
@@ -1820,9 +1808,9 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A55" s="23"/>
+      <c r="A55" s="20"/>
       <c r="B55" s="11" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>79</v>
@@ -1832,9 +1820,9 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A56" s="23"/>
+      <c r="A56" s="20"/>
       <c r="B56" s="11" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>80</v>
@@ -1844,9 +1832,9 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A57" s="24"/>
+      <c r="A57" s="21"/>
       <c r="B57" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>78</v>
@@ -1870,11 +1858,11 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>78</v>
@@ -1883,13 +1871,13 @@
         <v>76</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A60" s="15"/>
+      <c r="A60" s="16"/>
       <c r="B60" s="11" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>78</v>
@@ -1898,13 +1886,13 @@
         <v>76</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A61" s="15"/>
+      <c r="A61" s="16"/>
       <c r="B61" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>78</v>
@@ -1917,11 +1905,11 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A62" s="25" t="s">
+      <c r="A62" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>78</v>
@@ -1931,9 +1919,9 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A63" s="26"/>
+      <c r="A63" s="23"/>
       <c r="B63" s="11" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>78</v>
@@ -1957,15 +1945,15 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A65" s="21" t="s">
+      <c r="A65" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
     </row>
     <row r="66" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A66" s="15" t="s">
+      <c r="A66" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B66" s="3" t="s">
@@ -1977,15 +1965,12 @@
       <c r="D66" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="F66" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A67" s="15"/>
+      <c r="A67" s="16"/>
       <c r="B67" s="3" t="s">
         <v>38</v>
       </c>
@@ -1996,11 +1981,11 @@
         <v>82</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A68" s="15"/>
+      <c r="A68" s="16"/>
       <c r="B68" s="3" t="s">
         <v>15</v>
       </c>
@@ -2015,7 +2000,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A69" s="15"/>
+      <c r="A69" s="16"/>
       <c r="B69" s="3" t="s">
         <v>16</v>
       </c>
@@ -2030,7 +2015,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A70" s="15"/>
+      <c r="A70" s="16"/>
       <c r="B70" s="9" t="s">
         <v>86</v>
       </c>
@@ -2042,7 +2027,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A71" s="15"/>
+      <c r="A71" s="16"/>
       <c r="B71" s="3" t="s">
         <v>8</v>
       </c>
@@ -2057,7 +2042,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A72" s="16" t="s">
+      <c r="A72" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B72" s="9" t="s">
@@ -2070,11 +2055,11 @@
         <v>74</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>95</v>
+        <v>185</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A73" s="17"/>
+      <c r="A73" s="18"/>
       <c r="B73" s="9" t="s">
         <v>92</v>
       </c>
@@ -2085,11 +2070,11 @@
         <v>74</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A74" s="17"/>
+      <c r="A74" s="18"/>
       <c r="B74" s="9" t="s">
         <v>60</v>
       </c>
@@ -2100,8 +2085,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A75" s="17"/>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A75" s="18"/>
       <c r="B75" s="1" t="s">
         <v>93</v>
       </c>
@@ -2112,11 +2097,11 @@
         <v>74</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>95</v>
+        <v>185</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A76" s="15" t="s">
+      <c r="A76" s="16" t="s">
         <v>21</v>
       </c>
       <c r="B76" s="3" t="s">
@@ -2129,11 +2114,11 @@
         <v>74</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A77" s="15"/>
+      <c r="A77" s="16"/>
       <c r="B77" s="9" t="s">
         <v>20</v>
       </c>
@@ -2145,7 +2130,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A78" s="15"/>
+      <c r="A78" s="16"/>
       <c r="B78" s="3" t="s">
         <v>85</v>
       </c>
@@ -2156,11 +2141,11 @@
         <v>74</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A79" s="15" t="s">
+      <c r="A79" s="16" t="s">
         <v>87</v>
       </c>
       <c r="B79" s="3" t="s">
@@ -2174,7 +2159,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A80" s="15"/>
+      <c r="A80" s="16"/>
       <c r="B80" s="3" t="s">
         <v>19</v>
       </c>
@@ -2186,7 +2171,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A81" s="15"/>
+      <c r="A81" s="16"/>
       <c r="B81" s="1" t="s">
         <v>88</v>
       </c>
@@ -2198,7 +2183,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A82" s="15" t="s">
+      <c r="A82" s="16" t="s">
         <v>40</v>
       </c>
       <c r="B82" s="3" t="s">
@@ -2212,7 +2197,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A83" s="15"/>
+      <c r="A83" s="16"/>
       <c r="B83" s="3" t="s">
         <v>89</v>
       </c>
@@ -2224,7 +2209,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A84" s="15"/>
+      <c r="A84" s="16"/>
       <c r="B84" s="3" t="s">
         <v>90</v>
       </c>
@@ -2236,7 +2221,7 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A85" s="16" t="s">
+      <c r="A85" s="17" t="s">
         <v>56</v>
       </c>
       <c r="B85" s="3" t="s">
@@ -2250,7 +2235,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A86" s="17"/>
+      <c r="A86" s="18"/>
       <c r="B86" s="3" t="s">
         <v>43</v>
       </c>
@@ -2262,9 +2247,9 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A87" s="17"/>
+      <c r="A87" s="18"/>
       <c r="B87" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C87" s="10" t="s">
         <v>79</v>
@@ -2274,9 +2259,9 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A88" s="18"/>
+      <c r="A88" s="24"/>
       <c r="B88" s="10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C88" s="10" t="s">
         <v>79</v>
@@ -2286,7 +2271,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A89" s="15" t="s">
+      <c r="A89" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B89" s="3" t="s">
@@ -2300,7 +2285,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A90" s="15"/>
+      <c r="A90" s="16"/>
       <c r="B90" s="3" t="s">
         <v>49</v>
       </c>
@@ -2312,7 +2297,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A91" s="15" t="s">
+      <c r="A91" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B91" s="3" t="s">
@@ -2326,7 +2311,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A92" s="15"/>
+      <c r="A92" s="16"/>
       <c r="B92" s="3" t="s">
         <v>46</v>
       </c>
@@ -2352,12 +2337,12 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A94" s="21" t="s">
+      <c r="A94" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B94" s="21"/>
-      <c r="C94" s="21"/>
-      <c r="D94" s="21"/>
+      <c r="B94" s="15"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="15"/>
     </row>
     <row r="95" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A95" s="3" t="s">
@@ -2373,7 +2358,7 @@
         <v>76</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.4">
@@ -2389,9 +2374,6 @@
       <c r="D96" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E96" s="1" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A97" s="3" t="s">
@@ -2408,7 +2390,7 @@
       </c>
     </row>
     <row r="98" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A98" s="15" t="s">
+      <c r="A98" s="16" t="s">
         <v>61</v>
       </c>
       <c r="B98" s="3" t="s">
@@ -2422,7 +2404,7 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A99" s="15"/>
+      <c r="A99" s="16"/>
       <c r="B99" s="3" t="s">
         <v>45</v>
       </c>
@@ -2434,7 +2416,7 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A100" s="15"/>
+      <c r="A100" s="16"/>
       <c r="B100" s="3" t="s">
         <v>50</v>
       </c>
@@ -2447,19 +2429,19 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A101" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C101" s="10" t="s">
         <v>78</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.4">
@@ -2476,7 +2458,7 @@
         <v>76</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.4">
@@ -2494,11 +2476,11 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A104" s="15" t="s">
+      <c r="A104" s="16" t="s">
         <v>59</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>78</v>
@@ -2508,9 +2490,9 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A105" s="15"/>
+      <c r="A105" s="16"/>
       <c r="B105" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>79</v>
@@ -2534,15 +2516,15 @@
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A107" s="21" t="s">
+      <c r="A107" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B107" s="21"/>
-      <c r="C107" s="21"/>
-      <c r="D107" s="21"/>
+      <c r="B107" s="15"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
     </row>
     <row r="108" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A108" s="15" t="s">
+      <c r="A108" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B108" s="3" t="s">
@@ -2555,13 +2537,13 @@
         <v>76</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A109" s="15"/>
+      <c r="A109" s="16"/>
       <c r="B109" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>78</v>
@@ -2570,11 +2552,11 @@
         <v>76</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A110" s="15"/>
+      <c r="A110" s="16"/>
       <c r="B110" s="3" t="s">
         <v>53</v>
       </c>
@@ -2585,27 +2567,34 @@
         <v>76</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A111" s="19" t="s">
+      <c r="A111" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B111" s="25"/>
+      <c r="C111" s="25"/>
+      <c r="D111" s="25"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A112" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="B111" s="19"/>
-      <c r="C111" s="19"/>
-      <c r="D111" s="19"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A112" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="B112" s="20"/>
-      <c r="C112" s="20"/>
-      <c r="D112" s="20"/>
+      <c r="B112" s="26"/>
+      <c r="C112" s="26"/>
+      <c r="D112" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="A112:D112"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="A104:A105"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="A94:D94"/>
@@ -2622,13 +2611,6 @@
     <mergeCell ref="A72:A75"/>
     <mergeCell ref="A53:A57"/>
     <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="A85:A88"/>
-    <mergeCell ref="A111:D111"/>
-    <mergeCell ref="A112:D112"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="A104:A105"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/Check.xlsx
+++ b/docs/Check.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\mobileTestig\diplom\fmh-android\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6EED42-BD1C-43CC-BCC5-EED38856AF1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6519C459-1484-4FBE-A257-6283CD470245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="184">
   <si>
     <t xml:space="preserve">Группа проверок </t>
   </si>
@@ -195,9 +195,6 @@
     <t>Верная политика конфиденициальности при смене региона</t>
   </si>
   <si>
-    <t>Несогласие на обработку пользовательских данных</t>
-  </si>
-  <si>
     <t>Нативные жесты</t>
   </si>
   <si>
@@ -361,9 +358,6 @@
   </si>
   <si>
     <t>Тест не пройден, политика конфиденциальности не открылась, появилась ошибка "Не удается получить доступ</t>
-  </si>
-  <si>
-    <t>Политика конфиденциальности и согласие на обработку персональных данных на старте приложения</t>
   </si>
   <si>
     <t>в темной теме некоторые элементы приложения плохо видно, на странице авторизации остался светлый фон, введенные логин и пароль сливаются с фоном</t>
@@ -715,7 +709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -759,18 +753,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -785,15 +791,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1075,10 +1072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F112"/>
+  <dimension ref="A1:F110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E105" sqref="E105"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1106,29 +1103,29 @@
         <v>4</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -1137,64 +1134,64 @@
         <v>29</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="16"/>
       <c r="B6" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="16"/>
       <c r="B7" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="16"/>
       <c r="B8" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -1203,10 +1200,10 @@
         <v>34</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
@@ -1214,556 +1211,556 @@
         <v>30</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A11" s="16"/>
       <c r="B11" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A12" s="16"/>
       <c r="B12" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A13" s="16"/>
       <c r="B13" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="16"/>
       <c r="B14" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="16"/>
       <c r="B15" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="16"/>
       <c r="B16" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A17" s="16"/>
       <c r="B17" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="16"/>
       <c r="B18" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A19" s="16"/>
       <c r="B19" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A20" s="16"/>
       <c r="B20" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="16"/>
       <c r="B21" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A22" s="16"/>
       <c r="B22" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="16"/>
       <c r="B23" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="16"/>
       <c r="B24" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="16"/>
       <c r="B25" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A27" s="16"/>
       <c r="B27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A28" s="16"/>
       <c r="B28" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A29" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A30" s="16"/>
       <c r="B30" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A31" s="16"/>
       <c r="B31" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A32" s="16"/>
       <c r="B32" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="16"/>
       <c r="B33" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="16"/>
       <c r="B34" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="16"/>
       <c r="B35" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="16"/>
       <c r="B36" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A37" s="16"/>
       <c r="B37" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A38" s="16"/>
       <c r="B38" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A40" s="16"/>
       <c r="B40" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A42" s="16"/>
       <c r="B42" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A43" s="16"/>
       <c r="B43" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="16"/>
       <c r="B44" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="16"/>
       <c r="B45" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="16"/>
       <c r="B46" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="16"/>
       <c r="B48" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A50" s="16"/>
       <c r="B50" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A51" s="16"/>
       <c r="B51" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -1772,75 +1769,75 @@
         <v>31</v>
       </c>
       <c r="C52" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A53" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A54" s="24"/>
+      <c r="B54" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A55" s="24"/>
+      <c r="B55" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A56" s="24"/>
+      <c r="B56" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C56" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D52" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A53" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A54" s="20"/>
-      <c r="B54" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A55" s="20"/>
-      <c r="B55" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A56" s="20"/>
-      <c r="B56" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>80</v>
-      </c>
       <c r="D56" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A57" s="21"/>
+      <c r="A57" s="25"/>
       <c r="B57" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.4">
@@ -1851,10 +1848,10 @@
         <v>33</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -1862,72 +1859,72 @@
         <v>25</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A60" s="16"/>
       <c r="B60" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A61" s="16"/>
       <c r="B61" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A62" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A63" s="27"/>
+      <c r="B63" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="C61" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A62" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A63" s="23"/>
-      <c r="B63" s="11" t="s">
-        <v>170</v>
-      </c>
       <c r="C63" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -1938,19 +1935,19 @@
         <v>26</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
     </row>
     <row r="66" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A66" s="16" t="s">
@@ -1960,13 +1957,13 @@
         <v>14</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.4">
@@ -1975,13 +1972,13 @@
         <v>38</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.4">
@@ -1990,13 +1987,13 @@
         <v>15</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
@@ -2005,10 +2002,10 @@
         <v>16</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>17</v>
@@ -2017,13 +2014,13 @@
     <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" s="16"/>
       <c r="B70" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.4">
@@ -2032,13 +2029,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
@@ -2046,58 +2043,58 @@
         <v>7</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A73" s="18"/>
       <c r="B73" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74" s="18"/>
       <c r="B74" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" s="18"/>
       <c r="B75" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.4">
@@ -2108,13 +2105,13 @@
         <v>27</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.4">
@@ -2123,39 +2120,39 @@
         <v>20</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" s="16"/>
       <c r="B78" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.4">
@@ -2164,22 +2161,22 @@
         <v>19</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81" s="16"/>
       <c r="B81" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.4">
@@ -2190,31 +2187,31 @@
         <v>39</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83" s="16"/>
       <c r="B83" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84" s="16"/>
       <c r="B84" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>22</v>
@@ -2222,16 +2219,16 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.4">
@@ -2240,34 +2237,34 @@
         <v>43</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87" s="18"/>
       <c r="B87" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A88" s="24"/>
+      <c r="A88" s="19"/>
       <c r="B88" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -2278,10 +2275,10 @@
         <v>48</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -2290,10 +2287,10 @@
         <v>49</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.4">
@@ -2304,10 +2301,10 @@
         <v>47</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.4">
@@ -2316,10 +2313,10 @@
         <v>46</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -2327,22 +2324,22 @@
         <v>13</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A94" s="15" t="s">
+      <c r="A94" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B94" s="15"/>
-      <c r="C94" s="15"/>
-      <c r="D94" s="15"/>
+      <c r="B94" s="22"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="22"/>
     </row>
     <row r="95" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A95" s="3" t="s">
@@ -2352,13 +2349,13 @@
         <v>24</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.4">
@@ -2369,38 +2366,38 @@
         <v>37</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A97" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A98" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B98" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B98" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="C98" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.4">
@@ -2409,10 +2406,10 @@
         <v>45</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.4">
@@ -2421,84 +2418,84 @@
         <v>50</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A101" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B101" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D101" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C101" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D101" s="10" t="s">
+      <c r="E101" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A102" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A103" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B103" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B103" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="C103" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A104" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A105" s="16"/>
       <c r="B105" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
@@ -2509,92 +2506,55 @@
         <v>41</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A107" s="15" t="s">
+      <c r="A107" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B107" s="15"/>
-      <c r="C107" s="15"/>
-      <c r="D107" s="15"/>
-    </row>
-    <row r="108" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A108" s="16" t="s">
+      <c r="B107" s="22"/>
+      <c r="C107" s="22"/>
+      <c r="D107" s="22"/>
+    </row>
+    <row r="108" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A108" s="15" t="s">
         <v>25</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A109" s="16"/>
-      <c r="B109" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D109" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A110" s="16"/>
-      <c r="B110" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D110" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A111" s="25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A109" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B109" s="20"/>
+      <c r="C109" s="20"/>
+      <c r="D109" s="20"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A110" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B111" s="25"/>
-      <c r="C111" s="25"/>
-      <c r="D111" s="25"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A112" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="B112" s="26"/>
-      <c r="C112" s="26"/>
-      <c r="D112" s="26"/>
+      <c r="B110" s="21"/>
+      <c r="C110" s="21"/>
+      <c r="D110" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="A85:A88"/>
-    <mergeCell ref="A111:D111"/>
-    <mergeCell ref="A112:D112"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="A104:A105"/>
+  <mergeCells count="22">
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="A94:D94"/>
@@ -2611,6 +2571,12 @@
     <mergeCell ref="A72:A75"/>
     <mergeCell ref="A53:A57"/>
     <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A104:A105"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
